--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/script.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/script.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC5BF7B-F990-4A12-917A-7BDDB929E6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACD2864-542D-441A-86BA-925566A8C704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -8590,20 +8590,7 @@
     <t>(메인 필드) : 나루인형(으로 추정되는) 아이템을 클로즈업한 그림이 뜬다.</t>
   </si>
   <si>
-    <t>‘뭉텅이’를 획득하였다.</t>
-  </si>
-  <si>
     <t>(…스스로를 본 딴 인형으로 추정된다.)</t>
-  </si>
-  <si>
-    <t>좋아. 그게 네 선택이구나. 네 선택과는 별개로 이야기 속 강아지는 밥을 먹었어. 
-\n그리고 그 과정속에서 네가 얻게 될 것은, 이것이지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건조하기는! 몇 번이나 말했듯 네가 정 의미를 찾지 못하겠다면 돌아가도 좋아.
-\n시간은 언제나 소중하고, 선택은 언제나 네 몫이야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아무튼. ‘기억’들의 이야기가 끝이 나면, 너는 다시 허수공간에 도착하게 될 거야.
@@ -10036,6 +10023,20 @@
   </si>
   <si>
     <t>None, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건조하기는! 몇 번이나 말했듯 네가 정 의미를 찾지 못하겠다면 돌아가도 좋아.
+시간은 언제나 소중하고, 선택은 언제나 네 몫이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘뭉텅이’를 획득하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼. ‘기억’들의 이야기가 끝이 나면, 너는 다시 허수공간에 도착하게 될 거야.
+그 이후의 일은 동일하지. 원하다면 다른 ‘기억’들의 이야기를 더 들을 수도 있고, 돌아갈 수도 있어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10561,17 +10562,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AA6C59-B342-447F-9620-6F7EB5513FAE}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10738,7 +10742,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10793,7 +10797,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -10825,7 +10829,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -10841,7 +10845,7 @@
         <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -10852,7 +10856,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -10863,7 +10867,7 @@
         <v>59</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -10874,7 +10878,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -10885,7 +10889,7 @@
         <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -10896,7 +10900,7 @@
         <v>69</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -10912,7 +10916,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -10923,7 +10927,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -10931,7 +10935,7 @@
     </row>
     <row r="26" spans="1:3" ht="132">
       <c r="B26" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33">
@@ -10939,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10950,7 +10954,7 @@
         <v>59</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -10961,7 +10965,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -10972,7 +10976,7 @@
         <v>59</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -10988,7 +10992,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -11010,7 +11014,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -11058,7 +11062,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -11080,7 +11084,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -11088,7 +11092,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -11099,7 +11103,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -11113,7 +11117,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -11129,7 +11133,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -11140,7 +11144,7 @@
         <v>33</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -11151,7 +11155,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -11162,7 +11166,7 @@
         <v>69</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -11173,7 +11177,7 @@
         <v>33</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -11184,7 +11188,7 @@
         <v>42</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -11195,7 +11199,7 @@
         <v>33</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -11206,7 +11210,7 @@
         <v>33</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -11222,7 +11226,7 @@
         <v>42</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -11233,7 +11237,7 @@
         <v>33</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -11255,7 +11259,7 @@
         <v>42</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -11266,7 +11270,7 @@
         <v>69</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -11277,7 +11281,7 @@
         <v>42</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -11288,7 +11292,7 @@
         <v>69</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -11299,7 +11303,7 @@
         <v>33</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -11326,7 +11330,7 @@
         <v>42</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -11348,7 +11352,7 @@
         <v>42</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -11359,7 +11363,7 @@
         <v>33</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -11386,7 +11390,7 @@
         <v>33</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -11402,7 +11406,7 @@
         <v>33</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -11413,7 +11417,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -11424,7 +11428,7 @@
         <v>33</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -11435,7 +11439,7 @@
         <v>33</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -11451,7 +11455,7 @@
         <v>33</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -11462,7 +11466,7 @@
         <v>33</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -11473,7 +11477,7 @@
         <v>33</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -11489,7 +11493,7 @@
         <v>33</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -11596,7 +11600,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -11607,7 +11611,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -11645,7 +11649,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -11979,7 +11983,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -11990,7 +11994,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -12012,7 +12016,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -12039,7 +12043,7 @@
         <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -12050,7 +12054,7 @@
         <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -12061,7 +12065,7 @@
         <v>104</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -12072,7 +12076,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -12083,7 +12087,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -12094,7 +12098,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -12105,7 +12109,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -12116,7 +12120,7 @@
         <v>104</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -12154,7 +12158,7 @@
         <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -12165,7 +12169,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -12214,7 +12218,7 @@
         <v>104</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -12225,7 +12229,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -12252,7 +12256,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -12268,7 +12272,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12284,7 +12288,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -12300,7 +12304,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -12338,7 +12342,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -12349,7 +12353,7 @@
         <v>104</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -12360,7 +12364,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -12371,7 +12375,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -12382,7 +12386,7 @@
         <v>104</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -12393,7 +12397,7 @@
         <v>32</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -12404,7 +12408,7 @@
         <v>104</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -12415,7 +12419,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -12426,7 +12430,7 @@
         <v>104</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -12437,7 +12441,7 @@
         <v>20</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -12448,7 +12452,7 @@
         <v>27</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -12459,7 +12463,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -12470,7 +12474,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -12492,7 +12496,7 @@
         <v>115</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -12503,7 +12507,7 @@
         <v>33</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -12514,7 +12518,7 @@
         <v>104</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -12525,7 +12529,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -12536,7 +12540,7 @@
         <v>27</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -12547,7 +12551,7 @@
         <v>20</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -12558,7 +12562,7 @@
         <v>27</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -12580,7 +12584,7 @@
         <v>33</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -12591,7 +12595,7 @@
         <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -12753,7 +12757,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -12764,7 +12768,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -12775,7 +12779,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -12786,7 +12790,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -12797,7 +12801,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -12808,7 +12812,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -12819,7 +12823,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -12830,7 +12834,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -12841,7 +12845,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -12857,7 +12861,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="33">
@@ -13081,8 +13085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="A22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -13256,7 +13260,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -13273,7 +13277,7 @@
         <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -13312,7 +13316,7 @@
         <v>100</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -13329,7 +13333,7 @@
         <v>100</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -13346,7 +13350,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -13380,7 +13384,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -13397,7 +13401,7 @@
         <v>126</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C20" s="11">
         <v>6</v>
@@ -13405,7 +13409,7 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="33">
@@ -13413,7 +13417,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -13424,7 +13428,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C22" s="11">
         <v>6</v>
@@ -13432,7 +13436,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -13516,7 +13520,7 @@
         <v>100</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -13567,7 +13571,7 @@
         <v>100</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -13584,7 +13588,7 @@
         <v>100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -13618,7 +13622,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -13652,7 +13656,7 @@
         <v>100</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -13711,7 +13715,7 @@
         <v>100</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -13734,8 +13738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CC2C1E-6D25-4DF6-8735-FDEFE9F7599E}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="A23:F23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -13831,7 +13835,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -13846,7 +13850,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -13858,7 +13862,7 @@
         <v>100</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -13906,7 +13910,7 @@
         <v>100</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -13928,7 +13932,7 @@
     <row r="14" spans="1:16" ht="82.5">
       <c r="A14" s="11"/>
       <c r="B14" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -13987,7 +13991,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -13999,7 +14003,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -14011,7 +14015,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -14023,7 +14027,7 @@
         <v>100</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -14033,7 +14037,7 @@
     <row r="23" spans="1:10" ht="49.5">
       <c r="A23" s="11"/>
       <c r="B23" s="13" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -14085,7 +14089,7 @@
         <v>100</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -14109,7 +14113,7 @@
         <v>100</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -14119,7 +14123,7 @@
     <row r="30" spans="1:10" ht="33">
       <c r="A30" s="11"/>
       <c r="B30" s="13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C30" s="11">
         <v>1</v>
@@ -14181,7 +14185,7 @@
         <v>100</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>163</v>
+        <v>368</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -14215,7 +14219,7 @@
         <v>100</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -14239,7 +14243,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C40" s="11">
         <v>1</v>
@@ -14265,7 +14269,7 @@
         <v>100</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -14277,7 +14281,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C43" s="11">
         <v>1</v>
@@ -14339,7 +14343,7 @@
         <v>100</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>163</v>
+        <v>368</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -14373,7 +14377,7 @@
         <v>100</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>164</v>
+        <v>370</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -14397,7 +14401,7 @@
         <v>27</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C53" s="11">
         <v>1</v>
@@ -14444,7 +14448,7 @@
         <v>100</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -14467,7 +14471,7 @@
         <v>27</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>160</v>
+        <v>369</v>
       </c>
       <c r="C59" s="11">
         <v>1</v>
@@ -14482,7 +14486,7 @@
         <v>27</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -14603,7 +14607,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -14614,7 +14618,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -14625,7 +14629,7 @@
         <v>128</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -14669,7 +14673,7 @@
         <v>128</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -14680,7 +14684,7 @@
         <v>128</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -14928,7 +14932,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -14950,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -14980,7 +14984,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -15147,7 +15151,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C8"/>
+      <selection activeCell="C34" sqref="A26:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -15229,7 +15233,7 @@
     <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -15237,7 +15241,7 @@
     <row r="6" spans="1:16">
       <c r="A6" s="12"/>
       <c r="B6" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -15250,7 +15254,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="12"/>
       <c r="B8" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -15263,7 +15267,7 @@
     <row r="10" spans="1:16">
       <c r="A10" s="12"/>
       <c r="B10" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -15276,7 +15280,7 @@
     <row r="12" spans="1:16">
       <c r="A12" s="12"/>
       <c r="B12" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -15289,7 +15293,7 @@
     <row r="14" spans="1:16">
       <c r="A14" s="12"/>
       <c r="B14" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -15302,7 +15306,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="12"/>
       <c r="B16" s="11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -15315,7 +15319,7 @@
     <row r="18" spans="1:4">
       <c r="A18" s="12"/>
       <c r="B18" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -15328,7 +15332,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="12"/>
       <c r="B20" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -15338,7 +15342,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -15352,7 +15356,7 @@
         <v>100</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -15483,7 +15487,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -15567,7 +15571,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -15585,7 +15589,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -15596,7 +15600,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -15607,7 +15611,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
@@ -15618,7 +15622,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -15629,7 +15633,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -15646,7 +15650,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -15654,7 +15658,7 @@
     </row>
     <row r="14" spans="1:16" ht="66">
       <c r="B14" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -15662,7 +15666,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -15673,7 +15677,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -15689,7 +15693,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -15700,7 +15704,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -15722,7 +15726,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -15749,7 +15753,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -15771,7 +15775,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -15782,7 +15786,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -15793,7 +15797,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -15804,7 +15808,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -15815,7 +15819,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -15826,7 +15830,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -15837,7 +15841,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -15859,7 +15863,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -15875,7 +15879,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -15886,7 +15890,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -15969,7 +15973,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -16048,7 +16052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="82.5">
+    <row r="5" spans="1:16" ht="87" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
@@ -16069,7 +16073,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -16091,7 +16095,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -16190,7 +16194,7 @@
         <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -16212,7 +16216,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -16223,7 +16227,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -16234,7 +16238,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -16245,7 +16249,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -16256,7 +16260,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -16267,7 +16271,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -16284,7 +16288,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -16303,7 +16307,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -16314,7 +16318,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -16325,7 +16329,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -16512,7 +16516,7 @@
         <v>59</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -16524,7 +16528,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -16536,7 +16540,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -16572,7 +16576,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -16621,7 +16625,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -16640,7 +16644,7 @@
     </row>
     <row r="19" spans="1:3" ht="49.5">
       <c r="B19" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -16648,7 +16652,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -16708,7 +16712,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -16719,7 +16723,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -16730,7 +16734,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -16741,7 +16745,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -16768,7 +16772,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C32">
         <v>1</v>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/script.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/script.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Stage1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACD2864-542D-441A-86BA-925566A8C704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F271AFB-DA28-CC41-8B45-F2B4EF06D9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -63,18 +63,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">0: NONE
-1: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">대화
 </t>
         </r>
         <r>
@@ -85,6 +73,39 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대화</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">2: </t>
         </r>
         <r>
@@ -107,7 +128,17 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> (1, 2, 3)
-3: </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
         </r>
         <r>
           <rPr>
@@ -139,7 +170,18 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">종료
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -246,8 +288,52 @@
             <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
-5: Save
-6: CutScene (Timeline 이름 - contents)</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">5: Save
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">6: CutScene (Timeline </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> - contents)</t>
         </r>
       </text>
     </comment>
@@ -257,20 +343,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dubby = -1
-Keep = 0 (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dubby = -1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Keep = 0 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>이전</t>
@@ -279,7 +375,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -289,9 +385,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>유지</t>
@@ -300,7 +396,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -310,9 +406,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>기본</t>
@@ -321,16 +417,66 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-None = 1 (Never)
-Protagonist = 2,
-Naru = 3,
-Photographer = 4,
-Doctor = 5</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">None = 1 (Never)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Protagonist = 2,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Naru = 3,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Photographer = 4,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doctor = 5</t>
         </r>
       </text>
     </comment>
@@ -340,20 +486,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Default = -1
-Keep = 0 (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Default = -1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Keep = 0 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>이전</t>
@@ -362,7 +518,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -372,9 +528,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>유지</t>
@@ -383,7 +539,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -393,9 +549,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>기본</t>
@@ -404,13 +560,33 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-Action1 = 1
-...</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Action1 = 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>...</t>
         </r>
       </text>
     </comment>
@@ -436,15 +612,69 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve"> 사용하고 있는 구분자
-:, ()</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구분자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
             <family val="2"/>
             <charset val="129"/>
           </rPr>
@@ -460,6 +690,41 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
+          <t>:, ()</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
           <t xml:space="preserve">- </t>
         </r>
         <r>
@@ -592,8 +857,19 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>)
-v0 : v1 (</t>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>v0 : v1 (</t>
         </r>
         <r>
           <rPr>
@@ -638,8 +914,30 @@
             <charset val="129"/>
           </rPr>
           <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
-v0 - Item name
-v1 - Add, Remove</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">v0 - Item name
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>v1 - Add, Remove</t>
         </r>
         <r>
           <rPr>
@@ -651,7 +949,6 @@
             <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
-- 1 (스크립트)
 </t>
         </r>
         <r>
@@ -659,11 +956,113 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>- 1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스크립트</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="맑은 고딕"/>
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">0: 스킵 불가능
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킵</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -675,16 +1074,712 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>1(value) : {$value}배속
-- 캐릭터 등장
-v0, v1 (순서 무관)
-v0 - Left, Right
-v1 - Appear, Active, Inactive, Disappear
-- 컷씬
-v0, v1, v2 (순서 무관)
-v0 - Hold, None   (대소문자 무관)
-v1 - value : {$value}초 동안 자동 넘김 혹은 입력 대기
-v2 - true, false 스킵가능 여부 (Default - true)  (대소문자 무관)</t>
+          <t>1(value) : {$value}</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배속</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등장</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>v0, v1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>순서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">v0 - Left, Right
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">v1 - Appear, Active, Inactive, Disappear
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컷씬</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>v0, v1, v2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>, v3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>순서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>v0 - Hold, None   (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대소문자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>v1 - value : {$value}</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동안</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넘김</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>혹은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">v2 - true, false </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킵가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여부</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> (Default - true)  (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대소문자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>v3 - UI(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>), Field (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대소문자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -3287,20 +4382,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dubby = -1
-Keep = 0 (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dubby = -1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Keep = 0 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>이전</t>
@@ -3309,7 +4414,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -3319,9 +4424,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>유지</t>
@@ -3330,7 +4435,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -3340,9 +4445,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>기본</t>
@@ -3351,15 +4456,55 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-None = 1 (Never)
-Protagonist = 2,
-Naru = 3,
-Photographer = 4,</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">None = 1 (Never)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Protagonist = 2,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Naru = 3,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Photographer = 4,</t>
         </r>
       </text>
     </comment>
@@ -3369,20 +4514,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Default = -1
-Keep = 0 (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Default = -1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Keep = 0 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>이전</t>
@@ -3391,7 +4546,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -3401,9 +4556,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>유지</t>
@@ -3412,7 +4567,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -3422,9 +4577,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>기본</t>
@@ -3433,13 +4588,33 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-Action1 = 1
-...</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Action1 = 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>...</t>
         </r>
       </text>
     </comment>
@@ -3488,18 +4663,7 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
+          <t xml:space="preserve">0: </t>
         </r>
         <r>
           <rPr>
@@ -3555,18 +4719,7 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>(value) : {$value}</t>
+          <t>1(value) : {$value}</t>
         </r>
         <r>
           <rPr>
@@ -7908,7 +9061,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="372">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10037,6 +11190,10 @@
   <si>
     <t>아무튼. ‘기억’들의 이야기가 끝이 나면, 너는 다시 허수공간에 도착하게 될 거야.
 그 이후의 일은 동일하지. 원하다면 다른 ‘기억’들의 이야기를 더 들을 수도 있고, 돌아갈 수도 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left, Disappear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10567,11 +11724,11 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -10653,13 +11810,13 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10729,7 +11886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="49.5">
+    <row r="5" spans="1:16" ht="54">
       <c r="B5" s="5" t="s">
         <v>76</v>
       </c>
@@ -10737,7 +11894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="33">
+    <row r="6" spans="1:16" ht="36">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -10748,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="18">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -10759,7 +11916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="18">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -10770,7 +11927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="18">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -10781,7 +11938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="18">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -10792,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="49.5">
+    <row r="11" spans="1:16" ht="54">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -10803,12 +11960,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="148.5">
+    <row r="12" spans="1:16" ht="162">
       <c r="B12" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="18">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -10819,12 +11976,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="99">
+    <row r="14" spans="1:16" ht="108">
       <c r="B14" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="49.5">
+    <row r="15" spans="1:16" ht="54">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -10835,12 +11992,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="148.5">
+    <row r="16" spans="1:16" ht="162">
       <c r="B16" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="18">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -10851,7 +12008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="33">
+    <row r="18" spans="1:3" ht="36">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -10862,7 +12019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33">
+    <row r="19" spans="1:3" ht="36">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -10873,7 +12030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -10884,7 +12041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="33">
+    <row r="21" spans="1:3" ht="36">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -10895,7 +12052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="18">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -10906,12 +12063,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="33">
+    <row r="23" spans="1:3" ht="18">
       <c r="B23" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="33">
+    <row r="24" spans="1:3" ht="36">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -10922,7 +12079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="33">
+    <row r="25" spans="1:3" ht="36">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -10933,12 +12090,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="132">
+    <row r="26" spans="1:3" ht="144">
       <c r="B26" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="33">
+    <row r="27" spans="1:3" ht="36">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -10949,7 +12106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="18">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -10960,7 +12117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="49.5">
+    <row r="29" spans="1:3" ht="54">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -10971,7 +12128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="18">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -10982,12 +12139,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="115.5">
+    <row r="31" spans="1:3" ht="126">
       <c r="B31" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="33">
+    <row r="32" spans="1:3" ht="36">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -10998,7 +12155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="18">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -11009,7 +12166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="33">
+    <row r="34" spans="1:3" ht="36">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -11020,12 +12177,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="148.5">
+    <row r="35" spans="1:3" ht="162">
       <c r="B35" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="18">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -11036,12 +12193,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="115.5">
+    <row r="37" spans="1:3" ht="126">
       <c r="B37" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="18">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -11052,12 +12209,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="49.5">
+    <row r="39" spans="1:3" ht="54">
       <c r="B39" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="33">
+    <row r="40" spans="1:3" ht="36">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -11068,7 +12225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="18">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -11079,7 +12236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="33">
+    <row r="42" spans="1:3" ht="36">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -11087,7 +12244,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="18">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -11098,7 +12255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="33">
+    <row r="44" spans="1:3" ht="36">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -11112,7 +12269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="18">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -11123,12 +12280,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="148.5">
+    <row r="47" spans="1:3" ht="162">
       <c r="B47" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="33">
+    <row r="48" spans="1:3" ht="18">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -11139,7 +12296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="66">
+    <row r="49" spans="1:3" ht="72">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -11150,7 +12307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="33">
+    <row r="50" spans="1:3" ht="36">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -11161,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="18">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -11172,7 +12329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="66">
+    <row r="52" spans="1:3" ht="72">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -11183,7 +12340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="18">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -11194,7 +12351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="49.5">
+    <row r="54" spans="1:3" ht="54">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -11205,7 +12362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="33">
+    <row r="55" spans="1:3" ht="36">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -11216,12 +12373,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="181.5">
+    <row r="56" spans="1:3" ht="198">
       <c r="B56" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="33">
+    <row r="57" spans="1:3" ht="36">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -11232,7 +12389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="33">
+    <row r="58" spans="1:3" ht="36">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -11243,7 +12400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="18">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -11254,7 +12411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="18">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -11265,7 +12422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="18">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -11276,7 +12433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" ht="18">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -11287,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="18">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -11298,7 +12455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" ht="18">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -11309,12 +12466,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="49.5">
+    <row r="65" spans="1:3" ht="54">
       <c r="B65" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="18">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -11325,7 +12482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="18">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -11336,7 +12493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="18">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -11347,7 +12504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" ht="18">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -11358,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" ht="18">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -11369,12 +12526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="33">
+    <row r="71" spans="1:3" ht="36">
       <c r="B71" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" ht="18">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -11385,7 +12542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" ht="18">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -11396,12 +12553,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="264">
+    <row r="74" spans="1:3" ht="288">
       <c r="B74" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="18">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -11412,7 +12569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" ht="18">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -11423,7 +12580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="33">
+    <row r="77" spans="1:3" ht="36">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -11434,7 +12591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="33">
+    <row r="78" spans="1:3" ht="36">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -11445,12 +12602,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="165">
+    <row r="79" spans="1:3" ht="180">
       <c r="B79" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="18">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -11461,7 +12618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="66">
+    <row r="81" spans="1:3" ht="72">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -11472,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" ht="18">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -11483,12 +12640,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="49.5">
+    <row r="83" spans="1:3" ht="54">
       <c r="B83" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="18">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -11499,7 +12656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="33">
+    <row r="85" spans="1:3" ht="36">
       <c r="B85" s="5" t="s">
         <v>96</v>
       </c>
@@ -11519,13 +12676,13 @@
       <selection activeCell="Q7" sqref="Q3:U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11595,7 +12752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="18">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -11606,7 +12763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="33">
+    <row r="6" spans="1:16" ht="36">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -11617,7 +12774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="18">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -11628,7 +12785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="18">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -11639,12 +12796,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="49.5">
+    <row r="9" spans="1:16" ht="54">
       <c r="B9" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="33">
+    <row r="10" spans="1:16" ht="36">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -11655,7 +12812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99">
+    <row r="11" spans="1:16" ht="108">
       <c r="B11" s="5" t="s">
         <v>102</v>
       </c>
@@ -11897,13 +13054,13 @@
       <selection activeCell="U2" sqref="P2:U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11973,12 +13130,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="99">
+    <row r="5" spans="1:16" ht="108">
       <c r="B5" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="18">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -11989,7 +13146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="33">
+    <row r="7" spans="1:16" ht="36">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -12000,7 +13157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="18">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -12011,7 +13168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="33">
+    <row r="9" spans="1:16" ht="36">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -12022,12 +13179,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="66">
+    <row r="10" spans="1:16" ht="72">
       <c r="B10" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="18">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -12038,7 +13195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="18">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -12049,7 +13206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="66">
+    <row r="13" spans="1:16" ht="72">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -12060,7 +13217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="49.5">
+    <row r="14" spans="1:16" ht="54">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -12071,7 +13228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="18">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -12082,7 +13239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="33">
+    <row r="16" spans="1:16" ht="36">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -12093,7 +13250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="33">
+    <row r="17" spans="1:3" ht="36">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -12104,7 +13261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="33">
+    <row r="18" spans="1:3" ht="36">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -12115,7 +13272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="49.5">
+    <row r="19" spans="1:3" ht="54">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -12126,7 +13283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="18">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -12137,12 +13294,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="99">
+    <row r="21" spans="1:3" ht="108">
       <c r="B21" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="18">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -12153,7 +13310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="33">
+    <row r="23" spans="1:3" ht="36">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -12164,7 +13321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="49.5">
+    <row r="24" spans="1:3" ht="54">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -12175,7 +13332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="18">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -12186,12 +13343,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="132">
+    <row r="26" spans="1:3" ht="144">
       <c r="B26" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="18">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -12202,7 +13359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="18">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -12213,7 +13370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="82.5">
+    <row r="29" spans="1:3" ht="90">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -12224,7 +13381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="18">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -12235,12 +13392,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33">
+    <row r="31" spans="1:3" ht="36">
       <c r="B31" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="18">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -12251,7 +13408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="18">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -12262,12 +13419,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="33">
+    <row r="34" spans="1:3" ht="36">
       <c r="B34" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="33">
+    <row r="35" spans="1:3" ht="36">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -12278,12 +13435,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="33">
+    <row r="36" spans="1:3" ht="36">
       <c r="B36" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="33">
+    <row r="37" spans="1:3" ht="36">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -12294,12 +13451,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="33">
+    <row r="38" spans="1:3" ht="36">
       <c r="B38" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="18">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -12310,12 +13467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="99">
+    <row r="40" spans="1:3" ht="108">
       <c r="B40" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="18">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -12326,7 +13483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="18">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -12337,7 +13494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="18">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -12348,7 +13505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="18">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -12359,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="18">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -12370,7 +13527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="33">
+    <row r="46" spans="1:3" ht="36">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -12381,7 +13538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="18">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -12392,7 +13549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="49.5">
+    <row r="48" spans="1:3" ht="54">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -12403,7 +13560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="33">
+    <row r="49" spans="1:3" ht="36">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -12414,7 +13571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="33">
+    <row r="50" spans="1:3" ht="36">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -12425,7 +13582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="18">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -12436,7 +13593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="18">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -12447,7 +13604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="33">
+    <row r="53" spans="1:3" ht="36">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -12458,7 +13615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="18">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -12469,7 +13626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="33">
+    <row r="55" spans="1:3" ht="36">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -12486,12 +13643,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="49.5">
+    <row r="57" spans="1:3" ht="54">
       <c r="B57" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" ht="18">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -12502,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="33">
+    <row r="59" spans="1:3" ht="36">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -12513,7 +13670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="33">
+    <row r="60" spans="1:3" ht="36">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -12524,7 +13681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="18">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -12535,7 +13692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="33">
+    <row r="62" spans="1:3" ht="36">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -12546,7 +13703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="18">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -12557,7 +13714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="33">
+    <row r="64" spans="1:3" ht="36">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -12574,12 +13731,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="49.5">
+    <row r="66" spans="1:3" ht="54">
       <c r="B66" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="33">
+    <row r="67" spans="1:3" ht="36">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -12601,12 +13758,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="99">
+    <row r="69" spans="1:3" ht="108">
       <c r="B69" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="82.5">
+    <row r="70" spans="1:3" ht="90">
       <c r="B70" s="5" t="s">
         <v>118</v>
       </c>
@@ -12671,13 +13828,13 @@
       <selection activeCell="Q8" sqref="Q3:U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12747,12 +13904,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="33">
+    <row r="5" spans="1:16" ht="36">
       <c r="B5" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="18">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -12763,7 +13920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="49.5">
+    <row r="7" spans="1:16" ht="54">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -12774,7 +13931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="33">
+    <row r="8" spans="1:16" ht="36">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -12785,7 +13942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="18">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -12796,7 +13953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="18">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -12807,7 +13964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="18">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -12818,7 +13975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="33">
+    <row r="12" spans="1:16" ht="36">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -12829,7 +13986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="33">
+    <row r="13" spans="1:16" ht="36">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -12840,7 +13997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="33">
+    <row r="14" spans="1:16" ht="36">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -12851,12 +14008,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="33">
+    <row r="15" spans="1:16" ht="36">
       <c r="B15" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="18">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -12864,7 +14021,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="33">
+    <row r="17" spans="2:2" ht="36">
       <c r="B17" s="5" t="s">
         <v>121</v>
       </c>
@@ -13085,17 +14242,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="A22:F22"/>
+    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13195,9 +14352,6 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -13212,9 +14366,6 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
@@ -13229,9 +14380,6 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
@@ -13246,16 +14394,13 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="C10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="49.5">
+    <row r="11" spans="1:16" ht="54">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -13268,11 +14413,8 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="115.5">
+    </row>
+    <row r="12" spans="1:16" ht="126">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -13284,9 +14426,6 @@
       </c>
       <c r="D12">
         <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -13302,16 +14441,13 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="C14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="49.5">
+    <row r="15" spans="1:16" ht="54">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -13324,11 +14460,8 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="115.5">
+    </row>
+    <row r="16" spans="1:16" ht="126">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -13341,11 +14474,8 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:6" ht="18">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -13358,11 +14488,8 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="33">
+    </row>
+    <row r="18" spans="1:6" ht="36">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -13375,11 +14502,8 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="49.5">
+    </row>
+    <row r="19" spans="1:6" ht="54">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -13392,11 +14516,8 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="49.5">
+    </row>
+    <row r="20" spans="1:6" ht="54">
       <c r="A20" s="12" t="s">
         <v>126</v>
       </c>
@@ -13412,7 +14533,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="33">
+    <row r="21" spans="1:6" ht="36">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -13423,7 +14544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="49.5">
+    <row r="22" spans="1:6" ht="54">
       <c r="A22" s="12" t="s">
         <v>28</v>
       </c>
@@ -13439,7 +14560,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="18">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -13452,11 +14573,8 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:6" ht="18">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -13468,20 +14586,14 @@
       </c>
       <c r="D24">
         <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="66">
+    </row>
+    <row r="26" spans="1:6" ht="72">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -13494,11 +14606,8 @@
       <c r="D26">
         <v>3</v>
       </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:6" ht="18">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -13511,11 +14620,8 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="66">
+    </row>
+    <row r="28" spans="1:6" ht="72">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -13528,11 +14634,8 @@
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:6" ht="18">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -13545,11 +14648,8 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="49.5">
+    </row>
+    <row r="30" spans="1:6" ht="54">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -13562,11 +14662,8 @@
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="82.5">
+    </row>
+    <row r="31" spans="1:6" ht="90">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -13579,11 +14676,8 @@
       <c r="D31">
         <v>3</v>
       </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="132">
+    </row>
+    <row r="32" spans="1:6" ht="144">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -13596,11 +14690,8 @@
       <c r="D32">
         <v>3</v>
       </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:6" ht="18">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -13613,11 +14704,8 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="115.5">
+    </row>
+    <row r="34" spans="1:6" ht="126">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -13630,11 +14718,8 @@
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="33">
+    </row>
+    <row r="35" spans="1:6" ht="36">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -13647,11 +14732,8 @@
       <c r="D35">
         <v>2</v>
       </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="49.5">
+    </row>
+    <row r="36" spans="1:6" ht="54">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -13664,11 +14746,8 @@
       <c r="D36">
         <v>3</v>
       </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:6" ht="18">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -13681,11 +14760,8 @@
       <c r="D37">
         <v>2</v>
       </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:6" ht="18">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -13697,20 +14773,14 @@
       </c>
       <c r="D38">
         <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="66">
+    </row>
+    <row r="40" spans="1:6" ht="72">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -13724,7 +14794,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -13738,17 +14808,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CC2C1E-6D25-4DF6-8735-FDEFE9F7599E}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13818,7 +14888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="33">
+    <row r="5" spans="1:16" ht="36">
       <c r="A5" s="11"/>
       <c r="B5" s="13" t="s">
         <v>25</v>
@@ -13830,7 +14900,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:16" ht="33">
+    <row r="6" spans="1:16" ht="36">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -13845,7 +14915,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:16" ht="82.5">
+    <row r="7" spans="1:16" ht="90">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -13857,7 +14927,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="49.5">
+    <row r="8" spans="1:16" ht="54">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -13869,7 +14939,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="66">
+    <row r="9" spans="1:16" ht="72">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -13881,7 +14951,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="18">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -13893,7 +14963,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:16" ht="49.5">
+    <row r="11" spans="1:16" ht="54">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -13905,7 +14975,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:16" ht="66">
+    <row r="12" spans="1:16" ht="72">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -13917,7 +14987,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="18">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -13929,7 +14999,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="82.5">
+    <row r="14" spans="1:16" ht="90">
       <c r="A14" s="11"/>
       <c r="B14" s="13" t="s">
         <v>362</v>
@@ -13941,7 +15011,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="18">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -13953,7 +15023,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="18">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -13965,7 +15035,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="18">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -13977,7 +15047,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="18">
       <c r="B18" s="8" t="s">
         <v>147</v>
       </c>
@@ -13986,7 +15056,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="66">
+    <row r="19" spans="1:10" ht="72">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -13998,7 +15068,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="115.5">
+    <row r="20" spans="1:10" ht="126">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -14010,7 +15080,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="66">
+    <row r="21" spans="1:10" ht="72">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -14022,7 +15092,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="33">
+    <row r="22" spans="1:10" ht="36">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -14034,7 +15104,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="49.5">
+    <row r="23" spans="1:10" ht="54">
       <c r="A23" s="11"/>
       <c r="B23" s="13" t="s">
         <v>363</v>
@@ -14048,7 +15118,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="18">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -14060,7 +15130,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="49.5">
+    <row r="25" spans="1:10" ht="54">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -14072,7 +15142,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="18">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -14084,7 +15154,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="66">
+    <row r="27" spans="1:10" ht="72">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -14096,7 +15166,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="18">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -14108,7 +15178,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:10" ht="82.5">
+    <row r="29" spans="1:10" ht="90">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -14120,7 +15190,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:10" ht="33">
+    <row r="30" spans="1:10" ht="36">
       <c r="A30" s="11"/>
       <c r="B30" s="13" t="s">
         <v>324</v>
@@ -14132,7 +15202,7 @@
       <c r="E30" s="11"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="18">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -14144,7 +15214,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="18">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -14156,7 +15226,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="49.5">
+    <row r="33" spans="1:8" ht="54">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -14168,7 +15238,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="33">
+    <row r="34" spans="1:8" ht="36">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -14180,7 +15250,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="82.5">
+    <row r="35" spans="1:8" ht="90">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -14192,7 +15262,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="18">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -14204,7 +15274,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="18">
       <c r="A37" s="11"/>
       <c r="B37" s="13" t="s">
         <v>155</v>
@@ -14214,7 +15284,7 @@
       <c r="E37" s="11"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="99">
+    <row r="38" spans="1:8" ht="108">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -14226,7 +15296,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="49.5">
+    <row r="39" spans="1:8" ht="54">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -14238,7 +15308,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="33">
+    <row r="40" spans="1:8" ht="36">
       <c r="A40" s="11" t="s">
         <v>27</v>
       </c>
@@ -14252,7 +15322,7 @@
       <c r="E40" s="11"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="18">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -14264,7 +15334,7 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="82.5">
+    <row r="42" spans="1:8" ht="90">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -14276,7 +15346,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="33">
+    <row r="43" spans="1:8" ht="36">
       <c r="A43" s="11" t="s">
         <v>27</v>
       </c>
@@ -14290,7 +15360,7 @@
       <c r="E43" s="11"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="18">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -14302,7 +15372,7 @@
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="18">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -14314,7 +15384,7 @@
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" ht="49.5">
+    <row r="46" spans="1:8" ht="54">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -14326,7 +15396,7 @@
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" ht="33">
+    <row r="47" spans="1:8" ht="36">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -14338,7 +15408,7 @@
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" ht="82.5">
+    <row r="48" spans="1:8" ht="90">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -14350,7 +15420,7 @@
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="18">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -14362,7 +15432,7 @@
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="18">
       <c r="A50" s="11"/>
       <c r="B50" s="13" t="s">
         <v>155</v>
@@ -14372,7 +15442,7 @@
       <c r="E50" s="11"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="99">
+    <row r="51" spans="1:8" ht="108">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -14384,7 +15454,7 @@
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="49.5">
+    <row r="52" spans="1:8" ht="54">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -14396,7 +15466,7 @@
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="33">
+    <row r="53" spans="1:8" ht="36">
       <c r="A53" s="11" t="s">
         <v>27</v>
       </c>
@@ -14410,7 +15480,7 @@
       <c r="E53" s="11"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="18">
       <c r="B54" s="8" t="s">
         <v>147</v>
       </c>
@@ -14419,7 +15489,7 @@
       </c>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="18">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -14431,7 +15501,7 @@
       </c>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:8" ht="33">
+    <row r="56" spans="1:8" ht="36">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -14443,7 +15513,7 @@
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="99">
+    <row r="57" spans="1:8" ht="108">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -14455,7 +15525,7 @@
       </c>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="49.5">
+    <row r="58" spans="1:8" ht="54">
       <c r="B58" s="13" t="s">
         <v>159</v>
       </c>
@@ -14466,7 +15536,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" ht="18">
       <c r="A59" s="11" t="s">
         <v>27</v>
       </c>
@@ -14481,7 +15551,7 @@
       <c r="F59" s="11"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="33">
+    <row r="60" spans="1:8" ht="36">
       <c r="A60" s="11" t="s">
         <v>27</v>
       </c>
@@ -14494,7 +15564,7 @@
       <c r="F60" s="11"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" ht="33">
+    <row r="61" spans="1:8" ht="36">
       <c r="A61" s="11"/>
       <c r="B61" s="13" t="s">
         <v>127</v>
@@ -14526,13 +15596,13 @@
       <selection activeCell="L11" sqref="L4:V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14602,7 +15672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="82.5">
+    <row r="5" spans="1:16" ht="90">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -14613,7 +15683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="18">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -14624,7 +15694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="18">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -14635,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="18">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -14646,7 +15716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="18">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -14657,7 +15727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="18">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -14668,7 +15738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5">
+    <row r="11" spans="1:16" ht="90">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -14679,7 +15749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="49.5">
+    <row r="12" spans="1:16" ht="36">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -14690,7 +15760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="18">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -14851,13 +15921,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14927,7 +15997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="18">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -14938,7 +16008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="18">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -14949,7 +16019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="33">
+    <row r="7" spans="1:16" ht="36">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -14968,7 +16038,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="18">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -14979,7 +16049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="18">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -14990,7 +16060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="18">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>37</v>
@@ -15154,13 +16224,13 @@
       <selection activeCell="C34" sqref="A26:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15337,7 +16407,7 @@
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="18">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -15351,7 +16421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="18">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -15490,13 +16560,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15566,7 +16636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="18">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -15577,14 +16647,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="66">
+    <row r="6" spans="1:16" ht="72">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:16" ht="82.5">
+    <row r="7" spans="1:16" ht="90">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -15595,7 +16665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="18">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -15606,7 +16676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="33">
+    <row r="9" spans="1:16" ht="36">
       <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
@@ -15617,7 +16687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="18">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -15628,7 +16698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="33">
+    <row r="11" spans="1:16" ht="36">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -15645,7 +16715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="33">
+    <row r="13" spans="1:16" ht="36">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -15656,12 +16726,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="66">
+    <row r="14" spans="1:16" ht="72">
       <c r="B14" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="18">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -15672,7 +16742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="18">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -15683,12 +16753,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="99">
+    <row r="17" spans="1:3" ht="108">
       <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="33">
+    <row r="18" spans="1:3" ht="36">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -15699,7 +16769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="18">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -15710,7 +16780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -15721,7 +16791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="18">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -15732,12 +16802,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="66">
+    <row r="22" spans="1:3" ht="72">
       <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="18">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -15748,7 +16818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="18">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -15759,7 +16829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="18">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -15770,7 +16840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="33">
+    <row r="26" spans="1:3" ht="36">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -15781,7 +16851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="18">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -15792,7 +16862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="18">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -15803,7 +16873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="18">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -15814,7 +16884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="33">
+    <row r="30" spans="1:3" ht="36">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -15825,7 +16895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="18">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -15836,7 +16906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="33">
+    <row r="32" spans="1:3" ht="36">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -15853,12 +16923,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="49.5">
+    <row r="34" spans="1:3" ht="54">
       <c r="B34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="18">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -15869,12 +16939,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="33">
+    <row r="36" spans="1:3" ht="36">
       <c r="B36" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="33">
+    <row r="37" spans="1:3" ht="18">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -15885,7 +16955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="49.5">
+    <row r="38" spans="1:3" ht="54">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -15896,7 +16966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="115.5">
+    <row r="39" spans="1:3" ht="126">
       <c r="B39" s="5" t="s">
         <v>52</v>
       </c>
@@ -15976,13 +17046,13 @@
       <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16057,7 +17127,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="18">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -16068,7 +17138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="49.5">
+    <row r="7" spans="1:16" ht="54">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -16079,7 +17149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="18">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -16090,7 +17160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="18">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -16101,14 +17171,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="198">
+    <row r="10" spans="1:16" ht="216">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="18">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -16119,12 +17189,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="49.5">
+    <row r="12" spans="1:16" ht="54">
       <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="18">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -16135,12 +17205,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="49.5">
+    <row r="14" spans="1:16" ht="54">
       <c r="B14" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="18">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -16151,7 +17221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="18">
       <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
@@ -16162,7 +17232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="18">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -16173,12 +17243,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="49.5">
+    <row r="18" spans="1:4" ht="54">
       <c r="B18" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="18">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -16189,7 +17259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="18">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -16200,7 +17270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="18">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -16211,7 +17281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="33">
+    <row r="22" spans="1:4" ht="36">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -16222,7 +17292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="18">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -16233,7 +17303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="18">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -16244,7 +17314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="33">
+    <row r="25" spans="1:4" ht="36">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -16255,7 +17325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="18">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -16266,7 +17336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="33">
+    <row r="27" spans="1:4" ht="36">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -16283,7 +17353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="18">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -16294,7 +17364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="132">
+    <row r="30" spans="1:4" ht="144">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
         <v>61</v>
@@ -16302,7 +17372,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="18">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -16313,7 +17383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="33">
+    <row r="32" spans="1:4" ht="36">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -16324,7 +17394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="33">
+    <row r="33" spans="1:3" ht="36">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -16335,7 +17405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="132">
+    <row r="34" spans="1:3" ht="144">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
@@ -16430,13 +17500,13 @@
       <selection activeCell="V8" sqref="O1:V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16506,12 +17576,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="49.5">
+    <row r="5" spans="1:16" ht="54">
       <c r="B5" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="49.5">
+    <row r="6" spans="1:16" ht="54">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -16523,7 +17593,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="18">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -16535,7 +17605,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:16" ht="49.5">
+    <row r="8" spans="1:16" ht="54">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -16547,7 +17617,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="18">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -16559,7 +17629,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="18">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -16571,7 +17641,7 @@
       </c>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="18">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -16583,12 +17653,12 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:16" ht="198">
+    <row r="12" spans="1:16" ht="216">
       <c r="B12" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="18">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -16599,12 +17669,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="49.5">
+    <row r="14" spans="1:16" ht="54">
       <c r="B14" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="33">
+    <row r="15" spans="1:16" ht="36">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -16615,12 +17685,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="99">
+    <row r="16" spans="1:16" ht="108">
       <c r="B16" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="18">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -16631,7 +17701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="18">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -16642,12 +17712,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="49.5">
+    <row r="19" spans="1:3" ht="54">
       <c r="B19" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="18">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -16658,12 +17728,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="49.5">
+    <row r="21" spans="1:3" ht="54">
       <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="18">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -16674,7 +17744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="18">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -16685,7 +17755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="18">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -16696,7 +17766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="18">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -16707,7 +17777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="18">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -16718,7 +17788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="33">
+    <row r="27" spans="1:3" ht="36">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -16729,7 +17799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="18">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -16740,7 +17810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="33">
+    <row r="29" spans="1:3" ht="36">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -16751,7 +17821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="18">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -16767,7 +17837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="49.5">
+    <row r="32" spans="1:3" ht="54">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -16778,7 +17848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="18">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -16789,7 +17859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="148.5">
+    <row r="34" spans="1:3" ht="162">
       <c r="B34" s="5" t="s">
         <v>75</v>
       </c>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/script.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/script.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2893A8-6CB1-4705-82AA-FA8ABB875158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D24E80-1FDF-4955-92E4-A3273F5FEE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="9" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -6313,7 +6313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="287">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7773,10 +7773,6 @@
   </si>
   <si>
     <t>stage1-4 end interaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>래퍼런스 필요함 (입력 되면 다음 거로 넘어가는 거에서 어떻게 자연스럽게 할지나, 대화창은 어떻게 될지 등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7921,7 +7917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7959,6 +7955,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8367,7 +8366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4240CC8D-8D76-4581-8EFE-8C2BB656B6FC}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -8797,8 +8796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1BDE78-7DBD-4684-8FB2-3095F5A3A78B}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -8904,9 +8903,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="I6" s="12" t="s">
-        <v>284</v>
-      </c>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:16" ht="49.5">
       <c r="A7" s="3"/>
@@ -9262,7 +9259,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="82.5">
@@ -9797,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -10300,7 +10297,7 @@
       </c>
       <c r="D8" s="7"/>
       <c r="H8" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -10805,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="49.5">
